--- a/docs/classifiche/classifica2024.xlsx
+++ b/docs/classifiche/classifica2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\Vs_Code\Sito_Motogp\Sito_Motogp\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\Vs_Code\Sito_Motogp\Sito_Motogp\docs\classifiche\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF243A1-5380-42E4-8193-E59F8C4435F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3E269D-9476-4DA5-BFE6-287B5EB0B6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="3672" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -1005,8 +1005,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G40" workbookViewId="0">
-      <selection activeCell="U81" sqref="U81"/>
+    <sheetView tabSelected="1" topLeftCell="G68" workbookViewId="0">
+      <selection activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1125,7 +1125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="Y4" s="6">
         <v>4</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1164,7 +1164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1349,7 +1349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>26</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -1458,7 +1458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1567,7 +1567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>29</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -1676,7 +1676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1781,7 +1781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1878,7 +1878,7 @@
       <c r="V18" s="10"/>
       <c r="W18" s="10"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>33</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1975,7 +1975,7 @@
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>35</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -2072,7 +2072,7 @@
       <c r="V22" s="10"/>
       <c r="W22" s="10"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -2169,7 +2169,7 @@
       <c r="V24" s="10"/>
       <c r="W24" s="10"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>38</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -2266,7 +2266,7 @@
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>39</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -2363,7 +2363,7 @@
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>41</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2460,7 +2460,7 @@
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>42</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -2557,7 +2557,7 @@
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>44</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -2654,7 +2654,7 @@
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>45</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -2751,7 +2751,7 @@
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>47</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
